--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances_Fold_10.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances_Fold_10.xlsx
@@ -1,69 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
-  <si>
-    <t>Lambda Threshold</t>
-  </si>
-  <si>
-    <t>Abstain Instances (Index, True Label)</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[(4, 0), (6, 1), (8, 0), (11, 1), (13, 1), (17, 0), (18, 1), (19, 1), (20, 1), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (28, 0), (31, 1), (32, 1), (38, 1), (39, 1), (40, 1), (41, 1), (43, 0), (44, 0), (46, 0), (50, 0), (51, 0), (53, 1), (54, 0), (55, 0)]</t>
-  </si>
-  <si>
-    <t>[(2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (17, 0), (18, 1), (19, 1), (20, 1), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
-  </si>
-  <si>
-    <t>[(2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
-  </si>
-  <si>
-    <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
-  </si>
-  <si>
-    <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,94 +420,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Lambda Threshold</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Abstain Instances (Index, True Label)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>0.55</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[(0, 0), (2, 1), (3, 1), (4, 0), (5, 1), (7, 0), (8, 0), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (27, 1), (28, 0), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (40, 1), (41, 1), (42, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (55, 0), (56, 1)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0.6</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>0.65</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>0.7</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>0.75</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>0.8</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>0.85</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>0.9</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances_Fold_10.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances_Fold_10.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[(0, 0), (2, 1), (3, 1), (4, 0), (5, 1), (7, 0), (8, 0), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (27, 1), (28, 0), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (40, 1), (41, 1), (42, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (55, 0), (56, 1)]</t>
+          <t>[(1, 1), (4, 0), (6, 1), (8, 0), (9, 1), (11, 1), (12, 1), (13, 1), (16, 0), (17, 0), (19, 1), (20, 1), (23, 0), (24, 1), (25, 0), (26, 1), (28, 0), (29, 1), (31, 1), (35, 1), (38, 1), (39, 1), (40, 1), (41, 1), (43, 0), (44, 0), (46, 0), (49, 0), (50, 0), (51, 0), (53, 1), (54, 0), (55, 0)]</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
         </is>
       </c>
     </row>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances_Fold_10.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances_Fold_10.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[(1, 1), (4, 0), (6, 1), (8, 0), (9, 1), (11, 1), (12, 1), (13, 1), (16, 0), (17, 0), (19, 1), (20, 1), (23, 0), (24, 1), (25, 0), (26, 1), (28, 0), (29, 1), (31, 1), (35, 1), (38, 1), (39, 1), (40, 1), (41, 1), (43, 0), (44, 0), (46, 0), (49, 0), (50, 0), (51, 0), (53, 1), (54, 0), (55, 0)]</t>
+          <t>[(3, 1), (10, 1), (36, 1), (37, 1)]</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+          <t>[(3, 1), (10, 1), (36, 1), (37, 1)]</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+          <t>[(3, 1), (6, 1), (10, 1), (14, 0), (33, 1), (36, 1), (37, 1), (45, 0)]</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+          <t>[(3, 1), (6, 1), (10, 1), (12, 1), (14, 0), (18, 1), (24, 1), (33, 1), (36, 1), (37, 1), (45, 0)]</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+          <t>[(2, 1), (3, 1), (5, 1), (6, 1), (10, 1), (12, 1), (14, 0), (16, 0), (18, 1), (24, 1), (30, 1), (33, 1), (36, 1), (37, 1), (42, 0), (45, 0), (47, 0), (48, 0), (56, 1)]</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+          <t>[(2, 1), (3, 1), (5, 1), (6, 1), (10, 1), (12, 1), (14, 0), (16, 0), (18, 1), (24, 1), (30, 1), (31, 1), (33, 1), (36, 1), (37, 1), (39, 1), (42, 0), (43, 0), (44, 0), (45, 0), (47, 0), (48, 0), (53, 1), (54, 0), (56, 1)]</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+          <t>[(2, 1), (3, 1), (5, 1), (6, 1), (9, 1), (10, 1), (12, 1), (14, 0), (16, 0), (18, 1), (24, 1), (30, 1), (31, 1), (33, 1), (36, 1), (37, 1), (39, 1), (42, 0), (43, 0), (44, 0), (45, 0), (47, 0), (48, 0), (53, 1), (54, 0), (56, 1)]</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 1), (2, 1), (3, 1), (4, 0), (5, 1), (6, 1), (7, 0), (8, 0), (9, 1), (10, 1), (11, 1), (12, 1), (13, 1), (14, 0), (15, 1), (16, 0), (17, 0), (18, 1), (19, 1), (20, 1), (21, 0), (22, 0), (23, 0), (24, 1), (25, 0), (26, 1), (27, 1), (28, 0), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 1), (42, 0), (43, 0), (44, 0), (45, 0), (46, 0), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 1), (53, 1), (54, 0), (55, 0), (56, 1)]</t>
+          <t>[(2, 1), (3, 1), (5, 1), (6, 1), (7, 0), (9, 1), (10, 1), (12, 1), (14, 0), (16, 0), (18, 1), (24, 1), (27, 1), (29, 1), (30, 1), (31, 1), (33, 1), (36, 1), (37, 1), (39, 1), (42, 0), (43, 0), (44, 0), (45, 0), (47, 0), (48, 0), (53, 1), (54, 0), (56, 1)]</t>
         </is>
       </c>
     </row>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances_Fold_10.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Instances_Fold_10.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[(3, 1), (10, 1), (36, 1), (37, 1)]</t>
+          <t>[(0, 0), (1, 0), (3, 1), (4, 1), (6, 1), (7, 0), (8, 0), (11, 0), (12, 0), (13, 0), (14, 0), (17, 0), (18, 0), (19, 1), (20, 1), (21, 1), (23, 1), (24, 0), (25, 0), (26, 0), (28, 1), (29, 1), (33, 1), (34, 1), (37, 1), (38, 1), (39, 1), (41, 0), (42, 0), (43, 1), (44, 1), (52, 0), (54, 0), (55, 0), (56, 0), (57, 0), (58, 0), (61, 1), (62, 1), (63, 1), (65, 1), (69, 1), (70, 1), (71, 1), (73, 1), (74, 1), (76, 1), (77, 0), (79, 0), (80, 0), (81, 0), (82, 0), (84, 0), (86, 0), (87, 0), (88, 0), (90, 1), (92, 1), (94, 0), (99, 0), (100, 0), (101, 1), (103, 1), (104, 1), (106, 0), (108, 0), (110, 0), (111, 0), (112, 0), (113, 0), (115, 0), (116, 1), (121, 1), (122, 1), (123, 1), (124, 1), (126, 1), (129, 1), (132, 1), (133, 1), (134, 1), (135, 1), (136, 1), (139, 1), (144, 1), (145, 1), (150, 1), (151, 1), (153, 1), (154, 1), (155, 1), (156, 1), (157, 1), (158, 1), (160, 1), (161, 1), (162, 1), (163, 1), (165, 1), (166, 1), (167, 1), (168, 1), (170, 1), (171, 1), (172, 1), (175, 1), (176, 1), (177, 0), (178, 0), (179, 0), (180, 0), (182, 0), (183, 0), (184, 0), (186, 0), (191, 0), (193, 0), (197, 0), (198, 0), (199, 0), (200, 0), (201, 0), (202, 0), (203, 0), (204, 0), (205, 0), (207, 1), (208, 1), (209, 1), (210, 1), (211, 1), (212, 1), (213, 1), (214, 0), (217, 0), (218, 0), (220, 0), (221, 0), (223, 0), (224, 0), (226, 0), (228, 0), (229, 0), (230, 0), (231, 0), (232, 0), (233, 0), (234, 0), (238, 0), (240, 1), (241, 1)]</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[(3, 1), (10, 1), (36, 1), (37, 1)]</t>
+          <t>[(0, 0), (1, 0), (2, 0), (3, 1), (4, 1), (6, 1), (7, 0), (8, 0), (9, 0), (10, 0), (11, 0), (12, 0), (13, 0), (14, 0), (15, 0), (16, 0), (17, 0), (18, 0), (19, 1), (20, 1), (21, 1), (22, 1), (23, 1), (24, 0), (25, 0), (26, 0), (28, 1), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 0), (42, 0), (43, 1), (44, 1), (45, 1), (46, 1), (48, 0), (49, 0), (50, 0), (51, 0), (52, 0), (54, 0), (55, 0), (56, 0), (57, 0), (58, 0), (60, 1), (61, 1), (62, 1), (63, 1), (65, 1), (66, 1), (67, 1), (68, 1), (69, 1), (70, 1), (71, 1), (72, 1), (73, 1), (74, 1), (75, 1), (76, 1), (77, 0), (79, 0), (80, 0), (81, 0), (82, 0), (83, 0), (84, 0), (85, 0), (86, 0), (87, 0), (88, 0), (89, 1), (90, 1), (91, 1), (92, 1), (93, 1), (94, 0), (95, 0), (96, 0), (98, 0), (99, 0), (100, 0), (101, 1), (102, 1), (103, 1), (104, 1), (105, 0), (106, 0), (108, 0), (109, 0), (110, 0), (111, 0), (112, 0), (113, 0), (114, 0), (115, 0), (116, 1), (117, 1), (121, 1), (122, 1), (123, 1), (124, 1), (125, 1), (126, 1), (127, 1), (128, 1), (129, 1), (131, 1), (132, 1), (133, 1), (134, 1), (135, 1), (136, 1), (137, 1), (138, 1), (139, 1), (141, 1), (143, 1), (144, 1), (145, 1), (147, 1), (148, 1), (149, 1), (150, 1), (151, 1), (153, 1), (154, 1), (155, 1), (156, 1), (157, 1), (158, 1), (159, 1), (160, 1), (161, 1), (162, 1), (163, 1), (164, 1), (165, 1), (166, 1), (167, 1), (168, 1), (169, 1), (170, 1), (171, 1), (172, 1), (173, 1), (174, 1), (175, 1), (176, 1), (177, 0), (178, 0), (179, 0), (180, 0), (181, 0), (182, 0), (183, 0), (184, 0), (186, 0), (187, 0), (188, 0), (189, 0), (190, 0), (191, 0), (192, 0), (193, 0), (195, 0), (196, 0), (197, 0), (198, 0), (199, 0), (200, 0), (201, 0), (202, 0), (203, 0), (204, 0), (205, 0), (207, 1), (208, 1), (209, 1), (210, 1), (211, 1), (212, 1), (213, 1), (214, 0), (215, 0), (216, 0), (217, 0), (218, 0), (219, 0), (220, 0), (221, 0), (222, 0), (223, 0), (224, 0), (225, 0), (226, 0), (227, 0), (228, 0), (229, 0), (230, 0), (231, 0), (232, 0), (233, 0), (234, 0), (235, 0), (237, 0), (238, 0), (239, 1), (240, 1), (241, 1)]</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[(3, 1), (6, 1), (10, 1), (14, 0), (33, 1), (36, 1), (37, 1), (45, 0)]</t>
+          <t>[(0, 0), (1, 0), (2, 0), (3, 1), (4, 1), (5, 1), (6, 1), (7, 0), (8, 0), (9, 0), (10, 0), (11, 0), (12, 0), (13, 0), (14, 0), (15, 0), (16, 0), (17, 0), (18, 0), (19, 1), (20, 1), (21, 1), (22, 1), (23, 1), (24, 0), (25, 0), (26, 0), (28, 1), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 0), (42, 0), (43, 1), (44, 1), (45, 1), (46, 1), (48, 0), (49, 0), (50, 0), (51, 0), (52, 0), (53, 0), (54, 0), (55, 0), (56, 0), (57, 0), (58, 0), (60, 1), (61, 1), (62, 1), (63, 1), (64, 1), (65, 1), (66, 1), (67, 1), (68, 1), (69, 1), (70, 1), (71, 1), (72, 1), (73, 1), (74, 1), (75, 1), (76, 1), (77, 0), (78, 0), (79, 0), (80, 0), (81, 0), (82, 0), (83, 0), (84, 0), (85, 0), (86, 0), (87, 0), (88, 0), (89, 1), (90, 1), (91, 1), (92, 1), (93, 1), (94, 0), (95, 0), (96, 0), (97, 0), (98, 0), (99, 0), (100, 0), (101, 1), (102, 1), (103, 1), (104, 1), (105, 0), (106, 0), (107, 0), (108, 0), (109, 0), (110, 0), (111, 0), (112, 0), (113, 0), (114, 0), (115, 0), (116, 1), (117, 1), (118, 1), (119, 1), (121, 1), (122, 1), (123, 1), (124, 1), (125, 1), (126, 1), (127, 1), (128, 1), (129, 1), (131, 1), (132, 1), (133, 1), (134, 1), (135, 1), (136, 1), (137, 1), (138, 1), (139, 1), (140, 1), (141, 1), (143, 1), (144, 1), (145, 1), (147, 1), (148, 1), (149, 1), (150, 1), (151, 1), (152, 1), (153, 1), (154, 1), (155, 1), (156, 1), (157, 1), (158, 1), (159, 1), (160, 1), (161, 1), (162, 1), (163, 1), (164, 1), (165, 1), (166, 1), (167, 1), (168, 1), (169, 1), (170, 1), (171, 1), (172, 1), (173, 1), (174, 1), (175, 1), (176, 1), (177, 0), (178, 0), (179, 0), (180, 0), (181, 0), (182, 0), (183, 0), (184, 0), (186, 0), (187, 0), (188, 0), (189, 0), (190, 0), (191, 0), (192, 0), (193, 0), (194, 0), (195, 0), (196, 0), (197, 0), (198, 0), (199, 0), (200, 0), (201, 0), (202, 0), (203, 0), (204, 0), (205, 0), (207, 1), (208, 1), (209, 1), (210, 1), (211, 1), (212, 1), (213, 1), (214, 0), (215, 0), (216, 0), (217, 0), (218, 0), (219, 0), (220, 0), (221, 0), (222, 0), (223, 0), (224, 0), (225, 0), (226, 0), (227, 0), (228, 0), (229, 0), (230, 0), (231, 0), (232, 0), (233, 0), (234, 0), (235, 0), (236, 0), (237, 0), (238, 0), (239, 1), (240, 1), (241, 1)]</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[(3, 1), (6, 1), (10, 1), (12, 1), (14, 0), (18, 1), (24, 1), (33, 1), (36, 1), (37, 1), (45, 0)]</t>
+          <t>[(0, 0), (1, 0), (2, 0), (3, 1), (4, 1), (5, 1), (6, 1), (7, 0), (8, 0), (9, 0), (10, 0), (11, 0), (12, 0), (13, 0), (14, 0), (15, 0), (16, 0), (17, 0), (18, 0), (19, 1), (20, 1), (21, 1), (22, 1), (23, 1), (24, 0), (25, 0), (26, 0), (27, 0), (28, 1), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 0), (42, 0), (43, 1), (44, 1), (45, 1), (46, 1), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 0), (53, 0), (54, 0), (55, 0), (56, 0), (57, 0), (58, 0), (59, 0), (60, 1), (61, 1), (62, 1), (63, 1), (64, 1), (65, 1), (66, 1), (67, 1), (68, 1), (69, 1), (70, 1), (71, 1), (72, 1), (73, 1), (74, 1), (75, 1), (76, 1), (77, 0), (78, 0), (79, 0), (80, 0), (81, 0), (82, 0), (83, 0), (84, 0), (85, 0), (86, 0), (87, 0), (88, 0), (89, 1), (90, 1), (91, 1), (92, 1), (93, 1), (94, 0), (95, 0), (96, 0), (97, 0), (98, 0), (99, 0), (100, 0), (101, 1), (102, 1), (103, 1), (104, 1), (105, 0), (106, 0), (107, 0), (108, 0), (109, 0), (110, 0), (111, 0), (112, 0), (113, 0), (114, 0), (115, 0), (116, 1), (117, 1), (118, 1), (119, 1), (120, 1), (121, 1), (122, 1), (123, 1), (124, 1), (125, 1), (126, 1), (127, 1), (128, 1), (129, 1), (130, 1), (131, 1), (132, 1), (133, 1), (134, 1), (135, 1), (136, 1), (137, 1), (138, 1), (139, 1), (140, 1), (141, 1), (142, 1), (143, 1), (144, 1), (145, 1), (146, 1), (147, 1), (148, 1), (149, 1), (150, 1), (151, 1), (152, 1), (153, 1), (154, 1), (155, 1), (156, 1), (157, 1), (158, 1), (159, 1), (160, 1), (161, 1), (162, 1), (163, 1), (164, 1), (165, 1), (166, 1), (167, 1), (168, 1), (169, 1), (170, 1), (171, 1), (172, 1), (173, 1), (174, 1), (175, 1), (176, 1), (177, 0), (178, 0), (179, 0), (180, 0), (181, 0), (182, 0), (183, 0), (184, 0), (185, 0), (186, 0), (187, 0), (188, 0), (189, 0), (190, 0), (191, 0), (192, 0), (193, 0), (194, 0), (195, 0), (196, 0), (197, 0), (198, 0), (199, 0), (200, 0), (201, 0), (202, 0), (203, 0), (204, 0), (205, 0), (206, 0), (207, 1), (208, 1), (209, 1), (210, 1), (211, 1), (212, 1), (213, 1), (214, 0), (215, 0), (216, 0), (217, 0), (218, 0), (219, 0), (220, 0), (221, 0), (222, 0), (223, 0), (224, 0), (225, 0), (226, 0), (227, 0), (228, 0), (229, 0), (230, 0), (231, 0), (232, 0), (233, 0), (234, 0), (235, 0), (236, 0), (237, 0), (238, 0), (239, 1), (240, 1), (241, 1)]</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[(2, 1), (3, 1), (5, 1), (6, 1), (10, 1), (12, 1), (14, 0), (16, 0), (18, 1), (24, 1), (30, 1), (33, 1), (36, 1), (37, 1), (42, 0), (45, 0), (47, 0), (48, 0), (56, 1)]</t>
+          <t>[(0, 0), (1, 0), (2, 0), (3, 1), (4, 1), (5, 1), (6, 1), (7, 0), (8, 0), (9, 0), (10, 0), (11, 0), (12, 0), (13, 0), (14, 0), (15, 0), (16, 0), (17, 0), (18, 0), (19, 1), (20, 1), (21, 1), (22, 1), (23, 1), (24, 0), (25, 0), (26, 0), (27, 0), (28, 1), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 0), (42, 0), (43, 1), (44, 1), (45, 1), (46, 1), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 0), (53, 0), (54, 0), (55, 0), (56, 0), (57, 0), (58, 0), (59, 0), (60, 1), (61, 1), (62, 1), (63, 1), (64, 1), (65, 1), (66, 1), (67, 1), (68, 1), (69, 1), (70, 1), (71, 1), (72, 1), (73, 1), (74, 1), (75, 1), (76, 1), (77, 0), (78, 0), (79, 0), (80, 0), (81, 0), (82, 0), (83, 0), (84, 0), (85, 0), (86, 0), (87, 0), (88, 0), (89, 1), (90, 1), (91, 1), (92, 1), (93, 1), (94, 0), (95, 0), (96, 0), (97, 0), (98, 0), (99, 0), (100, 0), (101, 1), (102, 1), (103, 1), (104, 1), (105, 0), (106, 0), (107, 0), (108, 0), (109, 0), (110, 0), (111, 0), (112, 0), (113, 0), (114, 0), (115, 0), (116, 1), (117, 1), (118, 1), (119, 1), (120, 1), (121, 1), (122, 1), (123, 1), (124, 1), (125, 1), (126, 1), (127, 1), (128, 1), (129, 1), (130, 1), (131, 1), (132, 1), (133, 1), (134, 1), (135, 1), (136, 1), (137, 1), (138, 1), (139, 1), (140, 1), (141, 1), (142, 1), (143, 1), (144, 1), (145, 1), (146, 1), (147, 1), (148, 1), (149, 1), (150, 1), (151, 1), (152, 1), (153, 1), (154, 1), (155, 1), (156, 1), (157, 1), (158, 1), (159, 1), (160, 1), (161, 1), (162, 1), (163, 1), (164, 1), (165, 1), (166, 1), (167, 1), (168, 1), (169, 1), (170, 1), (171, 1), (172, 1), (173, 1), (174, 1), (175, 1), (176, 1), (177, 0), (178, 0), (179, 0), (180, 0), (181, 0), (182, 0), (183, 0), (184, 0), (185, 0), (186, 0), (187, 0), (188, 0), (189, 0), (190, 0), (191, 0), (192, 0), (193, 0), (194, 0), (195, 0), (196, 0), (197, 0), (198, 0), (199, 0), (200, 0), (201, 0), (202, 0), (203, 0), (204, 0), (205, 0), (206, 0), (207, 1), (208, 1), (209, 1), (210, 1), (211, 1), (212, 1), (213, 1), (214, 0), (215, 0), (216, 0), (217, 0), (218, 0), (219, 0), (220, 0), (221, 0), (222, 0), (223, 0), (224, 0), (225, 0), (226, 0), (227, 0), (228, 0), (229, 0), (230, 0), (231, 0), (232, 0), (233, 0), (234, 0), (235, 0), (236, 0), (237, 0), (238, 0), (239, 1), (240, 1), (241, 1)]</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[(2, 1), (3, 1), (5, 1), (6, 1), (10, 1), (12, 1), (14, 0), (16, 0), (18, 1), (24, 1), (30, 1), (31, 1), (33, 1), (36, 1), (37, 1), (39, 1), (42, 0), (43, 0), (44, 0), (45, 0), (47, 0), (48, 0), (53, 1), (54, 0), (56, 1)]</t>
+          <t>[(0, 0), (1, 0), (2, 0), (3, 1), (4, 1), (5, 1), (6, 1), (7, 0), (8, 0), (9, 0), (10, 0), (11, 0), (12, 0), (13, 0), (14, 0), (15, 0), (16, 0), (17, 0), (18, 0), (19, 1), (20, 1), (21, 1), (22, 1), (23, 1), (24, 0), (25, 0), (26, 0), (27, 0), (28, 1), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 0), (42, 0), (43, 1), (44, 1), (45, 1), (46, 1), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 0), (53, 0), (54, 0), (55, 0), (56, 0), (57, 0), (58, 0), (59, 0), (60, 1), (61, 1), (62, 1), (63, 1), (64, 1), (65, 1), (66, 1), (67, 1), (68, 1), (69, 1), (70, 1), (71, 1), (72, 1), (73, 1), (74, 1), (75, 1), (76, 1), (77, 0), (78, 0), (79, 0), (80, 0), (81, 0), (82, 0), (83, 0), (84, 0), (85, 0), (86, 0), (87, 0), (88, 0), (89, 1), (90, 1), (91, 1), (92, 1), (93, 1), (94, 0), (95, 0), (96, 0), (97, 0), (98, 0), (99, 0), (100, 0), (101, 1), (102, 1), (103, 1), (104, 1), (105, 0), (106, 0), (107, 0), (108, 0), (109, 0), (110, 0), (111, 0), (112, 0), (113, 0), (114, 0), (115, 0), (116, 1), (117, 1), (118, 1), (119, 1), (120, 1), (121, 1), (122, 1), (123, 1), (124, 1), (125, 1), (126, 1), (127, 1), (128, 1), (129, 1), (130, 1), (131, 1), (132, 1), (133, 1), (134, 1), (135, 1), (136, 1), (137, 1), (138, 1), (139, 1), (140, 1), (141, 1), (142, 1), (143, 1), (144, 1), (145, 1), (146, 1), (147, 1), (148, 1), (149, 1), (150, 1), (151, 1), (152, 1), (153, 1), (154, 1), (155, 1), (156, 1), (157, 1), (158, 1), (159, 1), (160, 1), (161, 1), (162, 1), (163, 1), (164, 1), (165, 1), (166, 1), (167, 1), (168, 1), (169, 1), (170, 1), (171, 1), (172, 1), (173, 1), (174, 1), (175, 1), (176, 1), (177, 0), (178, 0), (179, 0), (180, 0), (181, 0), (182, 0), (183, 0), (184, 0), (185, 0), (186, 0), (187, 0), (188, 0), (189, 0), (190, 0), (191, 0), (192, 0), (193, 0), (194, 0), (195, 0), (196, 0), (197, 0), (198, 0), (199, 0), (200, 0), (201, 0), (202, 0), (203, 0), (204, 0), (205, 0), (206, 0), (207, 1), (208, 1), (209, 1), (210, 1), (211, 1), (212, 1), (213, 1), (214, 0), (215, 0), (216, 0), (217, 0), (218, 0), (219, 0), (220, 0), (221, 0), (222, 0), (223, 0), (224, 0), (225, 0), (226, 0), (227, 0), (228, 0), (229, 0), (230, 0), (231, 0), (232, 0), (233, 0), (234, 0), (235, 0), (236, 0), (237, 0), (238, 0), (239, 1), (240, 1), (241, 1)]</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[(2, 1), (3, 1), (5, 1), (6, 1), (9, 1), (10, 1), (12, 1), (14, 0), (16, 0), (18, 1), (24, 1), (30, 1), (31, 1), (33, 1), (36, 1), (37, 1), (39, 1), (42, 0), (43, 0), (44, 0), (45, 0), (47, 0), (48, 0), (53, 1), (54, 0), (56, 1)]</t>
+          <t>[(0, 0), (1, 0), (2, 0), (3, 1), (4, 1), (5, 1), (6, 1), (7, 0), (8, 0), (9, 0), (10, 0), (11, 0), (12, 0), (13, 0), (14, 0), (15, 0), (16, 0), (17, 0), (18, 0), (19, 1), (20, 1), (21, 1), (22, 1), (23, 1), (24, 0), (25, 0), (26, 0), (27, 0), (28, 1), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 0), (42, 0), (43, 1), (44, 1), (45, 1), (46, 1), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 0), (53, 0), (54, 0), (55, 0), (56, 0), (57, 0), (58, 0), (59, 0), (60, 1), (61, 1), (62, 1), (63, 1), (64, 1), (65, 1), (66, 1), (67, 1), (68, 1), (69, 1), (70, 1), (71, 1), (72, 1), (73, 1), (74, 1), (75, 1), (76, 1), (77, 0), (78, 0), (79, 0), (80, 0), (81, 0), (82, 0), (83, 0), (84, 0), (85, 0), (86, 0), (87, 0), (88, 0), (89, 1), (90, 1), (91, 1), (92, 1), (93, 1), (94, 0), (95, 0), (96, 0), (97, 0), (98, 0), (99, 0), (100, 0), (101, 1), (102, 1), (103, 1), (104, 1), (105, 0), (106, 0), (107, 0), (108, 0), (109, 0), (110, 0), (111, 0), (112, 0), (113, 0), (114, 0), (115, 0), (116, 1), (117, 1), (118, 1), (119, 1), (120, 1), (121, 1), (122, 1), (123, 1), (124, 1), (125, 1), (126, 1), (127, 1), (128, 1), (129, 1), (130, 1), (131, 1), (132, 1), (133, 1), (134, 1), (135, 1), (136, 1), (137, 1), (138, 1), (139, 1), (140, 1), (141, 1), (142, 1), (143, 1), (144, 1), (145, 1), (146, 1), (147, 1), (148, 1), (149, 1), (150, 1), (151, 1), (152, 1), (153, 1), (154, 1), (155, 1), (156, 1), (157, 1), (158, 1), (159, 1), (160, 1), (161, 1), (162, 1), (163, 1), (164, 1), (165, 1), (166, 1), (167, 1), (168, 1), (169, 1), (170, 1), (171, 1), (172, 1), (173, 1), (174, 1), (175, 1), (176, 1), (177, 0), (178, 0), (179, 0), (180, 0), (181, 0), (182, 0), (183, 0), (184, 0), (185, 0), (186, 0), (187, 0), (188, 0), (189, 0), (190, 0), (191, 0), (192, 0), (193, 0), (194, 0), (195, 0), (196, 0), (197, 0), (198, 0), (199, 0), (200, 0), (201, 0), (202, 0), (203, 0), (204, 0), (205, 0), (206, 0), (207, 1), (208, 1), (209, 1), (210, 1), (211, 1), (212, 1), (213, 1), (214, 0), (215, 0), (216, 0), (217, 0), (218, 0), (219, 0), (220, 0), (221, 0), (222, 0), (223, 0), (224, 0), (225, 0), (226, 0), (227, 0), (228, 0), (229, 0), (230, 0), (231, 0), (232, 0), (233, 0), (234, 0), (235, 0), (236, 0), (237, 0), (238, 0), (239, 1), (240, 1), (241, 1)]</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[(2, 1), (3, 1), (5, 1), (6, 1), (7, 0), (9, 1), (10, 1), (12, 1), (14, 0), (16, 0), (18, 1), (24, 1), (27, 1), (29, 1), (30, 1), (31, 1), (33, 1), (36, 1), (37, 1), (39, 1), (42, 0), (43, 0), (44, 0), (45, 0), (47, 0), (48, 0), (53, 1), (54, 0), (56, 1)]</t>
+          <t>[(0, 0), (1, 0), (2, 0), (3, 1), (4, 1), (5, 1), (6, 1), (7, 0), (8, 0), (9, 0), (10, 0), (11, 0), (12, 0), (13, 0), (14, 0), (15, 0), (16, 0), (17, 0), (18, 0), (19, 1), (20, 1), (21, 1), (22, 1), (23, 1), (24, 0), (25, 0), (26, 0), (27, 0), (28, 1), (29, 1), (30, 1), (31, 1), (32, 1), (33, 1), (34, 1), (35, 1), (36, 1), (37, 1), (38, 1), (39, 1), (40, 1), (41, 0), (42, 0), (43, 1), (44, 1), (45, 1), (46, 1), (47, 0), (48, 0), (49, 0), (50, 0), (51, 0), (52, 0), (53, 0), (54, 0), (55, 0), (56, 0), (57, 0), (58, 0), (59, 0), (60, 1), (61, 1), (62, 1), (63, 1), (64, 1), (65, 1), (66, 1), (67, 1), (68, 1), (69, 1), (70, 1), (71, 1), (72, 1), (73, 1), (74, 1), (75, 1), (76, 1), (77, 0), (78, 0), (79, 0), (80, 0), (81, 0), (82, 0), (83, 0), (84, 0), (85, 0), (86, 0), (87, 0), (88, 0), (89, 1), (90, 1), (91, 1), (92, 1), (93, 1), (94, 0), (95, 0), (96, 0), (97, 0), (98, 0), (99, 0), (100, 0), (101, 1), (102, 1), (103, 1), (104, 1), (105, 0), (106, 0), (107, 0), (108, 0), (109, 0), (110, 0), (111, 0), (112, 0), (113, 0), (114, 0), (115, 0), (116, 1), (117, 1), (118, 1), (119, 1), (120, 1), (121, 1), (122, 1), (123, 1), (124, 1), (125, 1), (126, 1), (127, 1), (128, 1), (129, 1), (130, 1), (131, 1), (132, 1), (133, 1), (134, 1), (135, 1), (136, 1), (137, 1), (138, 1), (139, 1), (140, 1), (141, 1), (142, 1), (143, 1), (144, 1), (145, 1), (146, 1), (147, 1), (148, 1), (149, 1), (150, 1), (151, 1), (152, 1), (153, 1), (154, 1), (155, 1), (156, 1), (157, 1), (158, 1), (159, 1), (160, 1), (161, 1), (162, 1), (163, 1), (164, 1), (165, 1), (166, 1), (167, 1), (168, 1), (169, 1), (170, 1), (171, 1), (172, 1), (173, 1), (174, 1), (175, 1), (176, 1), (177, 0), (178, 0), (179, 0), (180, 0), (181, 0), (182, 0), (183, 0), (184, 0), (185, 0), (186, 0), (187, 0), (188, 0), (189, 0), (190, 0), (191, 0), (192, 0), (193, 0), (194, 0), (195, 0), (196, 0), (197, 0), (198, 0), (199, 0), (200, 0), (201, 0), (202, 0), (203, 0), (204, 0), (205, 0), (206, 0), (207, 1), (208, 1), (209, 1), (210, 1), (211, 1), (212, 1), (213, 1), (214, 0), (215, 0), (216, 0), (217, 0), (218, 0), (219, 0), (220, 0), (221, 0), (222, 0), (223, 0), (224, 0), (225, 0), (226, 0), (227, 0), (228, 0), (229, 0), (230, 0), (231, 0), (232, 0), (233, 0), (234, 0), (235, 0), (236, 0), (237, 0), (238, 0), (239, 1), (240, 1), (241, 1)]</t>
         </is>
       </c>
     </row>
